--- a/biology/Botanique/Mimusops_elengi/Mimusops_elengi.xlsx
+++ b/biology/Botanique/Mimusops_elengi/Mimusops_elengi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Mimusops elengi est une espèce de plantes à fleurs de la famille des Sapotaceae. C'est un arbre originaire de l'Asie, du sud de l'Inde au Viet-nam. Il a été importé dans de nombreux pays chauds notamment en Afrique et au nord de l'Australie. On le trouve à La Réunion et à l'île Maurice.
-Il est appelé quelquefois Coing de Chine[1] ou élengi
+Il est appelé quelquefois Coing de Chine ou élengi
 C'est un arbre à feuilles persistantes, atteignant 30 m de haut mais pouvant aller jusqu'à 60 m avec un tronc de 1 m de diamètre. L'écorce épaisse est brunâtre ou gris foncé avec quelques stries et fissures à sa surface. Il fleurit en avril et a ses fruits comestibles en juin. Les feuilles sont brillantes, vert foncé, de forme ovale, de 5 à 14 cm de long et 2,5 à 6 cm de large. Les fleurs sont crème, velues et parfumées. Le fruit, une baie ovoïde d'abord velue, devient lisse et orange à maturité et mesure 2 à 3 cm de long. Il contient une ou deux graines.
 Le bois rouge foncé est difficile à travailler.
 L'écorce, les fleurs, les fruits et les graines sont utilisées en médecine traditionnelle.
